--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +819,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +866,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1079,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1126,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1455,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1502,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1773,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1820,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +2004,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2051,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2322,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2369,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2553,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2576,28 +2600,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2784,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2831,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2962,10 +2986,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3009,28 +3033,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3055,28 +3079,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3367,10 +3391,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3414,28 +3438,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3460,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3743,10 +3767,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3790,28 +3814,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3836,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4235,10 +4259,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4282,28 +4306,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4328,28 +4352,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4495,10 +4519,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4542,28 +4566,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4588,28 +4612,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4900,10 +4924,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
+      <c r="J165" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4947,28 +4971,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4993,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5213,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5260,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5306,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5478,10 +5502,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5525,28 +5549,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5571,28 +5595,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5675,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
